--- a/Flash地址划分.xlsx
+++ b/Flash地址划分.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>0x0000</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>0xD400</t>
+  </si>
+  <si>
+    <t>0xC800</t>
   </si>
   <si>
     <t>10KB</t>
@@ -68,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,82 +116,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -225,15 +206,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,21 +252,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,30 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -593,11 +565,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +587,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -625,153 +610,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="J3:N39"/>
+  <dimension ref="J3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1189,12 +1185,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="11:13">
+    <row r="5" ht="15.9" spans="11:13">
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="11:13">
+    <row r="6" ht="15.9" spans="11:13">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1204,7 +1200,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="10:13">
+    <row r="8" ht="15.9" spans="10:13">
       <c r="J8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1212,66 +1208,66 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="10:13">
+    <row r="9" ht="15.9" spans="10:13">
       <c r="J9" s="5"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="10:13">
+    <row r="10" ht="15.9" spans="10:13">
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="10:13">
+    <row r="11" ht="15.9" spans="10:13">
       <c r="J11" s="5"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="10:13">
+    <row r="12" ht="15.9" spans="10:13">
       <c r="J12" s="5"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="10:13">
+    <row r="13" ht="15.9" spans="10:13">
       <c r="J13" s="5"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="10:13">
+    <row r="14" ht="15.9" spans="10:13">
       <c r="J14" s="5"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="10:13">
+    <row r="15" ht="15.9" spans="10:13">
       <c r="J15" s="5"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="10:13">
+    <row r="16" ht="15.9" spans="10:13">
       <c r="J16" s="5"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="10:13">
+    <row r="17" ht="15.9" spans="10:13">
       <c r="J17" s="5"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="11:13">
+    <row r="18" ht="15.9" spans="11:13">
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" ht="15.9" spans="11:13">
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1307,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="18.9" spans="11:14">
+    <row r="24" ht="18.9" spans="11:15">
       <c r="K24" s="13" t="s">
         <v>7</v>
       </c>
@@ -1316,39 +1312,42 @@
       <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" ht="15.9" spans="11:13">
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="10:13">
+    <row r="26" ht="15.9" spans="10:13">
       <c r="J26" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="10:13">
+    <row r="27" ht="15.9" spans="10:13">
       <c r="J27" s="5"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="10:13">
+    <row r="28" ht="15.9" spans="10:13">
       <c r="J28" s="5"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="10:13">
+    <row r="29" ht="15.9" spans="10:13">
       <c r="J29" s="5"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="10:13">
+    <row r="30" ht="15.9" spans="10:13">
       <c r="J30" s="5"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1364,40 +1363,40 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="18.9" spans="11:14">
       <c r="K33" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="15.9" spans="10:13">
       <c r="J34" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="10:13">
+    <row r="35" ht="15.9" spans="10:13">
       <c r="J35" s="5"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="10:13">
+    <row r="36" ht="15.9" spans="10:13">
       <c r="J36" s="5"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="10:13">
+    <row r="37" ht="15.9" spans="10:13">
       <c r="J37" s="5"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="39" ht="18.15" spans="14:14">
       <c r="N39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
